--- a/tools/luban/Datas/Rewards.xlsx
+++ b/tools/luban/Datas/Rewards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCA2173-FB9E-40FD-91A7-646580A19A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA7B112-2C98-4A3B-9D03-50B3EBDE072E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,15 +276,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,8 +307,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -590,216 +589,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>14</v>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
         <v>1001</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="4">
         <v>2001</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
         <v>1002</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="4">
         <v>2002</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="4">
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
         <v>1003</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="4">
         <v>2003</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
         <v>1004</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="4">
         <v>2004</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
         <v>1005</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="4">
         <v>2005</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
         <v>1006</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="4">
         <v>2006</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
         <v>1007</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="4">
         <v>2007</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4">
         <v>2008</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -825,291 +824,291 @@
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
         <v>1001</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>300</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="4">
         <v>2001</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
         <v>1002</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>600</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="4">
         <v>2002</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
         <v>1003</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>900</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="4">
         <v>2003</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
         <v>1004</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>1200</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="4">
         <v>2004</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
         <v>1005</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>1800</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="4">
         <v>2005</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="4">
         <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>1006</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>2100</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="4">
         <v>2006</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
         <v>1007</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>2700</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="4">
         <v>2007</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
         <v>1008</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>3000</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="4">
         <v>2008</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
         <v>1009</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>3600</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="4">
         <v>2009</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
